--- a/Упражнения/20.IPR.xlsx
+++ b/Упражнения/20.IPR.xlsx
@@ -1,108 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\Упражнения\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273245A3-1B61-4054-BA50-FAF05B2626C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="14205" windowHeight="8025" tabRatio="422"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="14205" windowHeight="8025" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Упражнение" sheetId="109" r:id="rId1"/>
+    <sheet name="IPR" sheetId="110" r:id="rId1"/>
     <sheet name="База насосов" sheetId="104" state="hidden" r:id="rId2"/>
     <sheet name="Фонтан" sheetId="102" state="hidden" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'База насосов'!$A$3:$O$1267</definedName>
-    <definedName name="Bob_" localSheetId="0">Упражнение!$C$13</definedName>
-    <definedName name="Dcas_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Dintake_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Dtub_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Dtub_out_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Dштуц__мм">Фонтан!$B$34</definedName>
-    <definedName name="Freq_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="gamma_gas_" localSheetId="0">Упражнение!$C$8</definedName>
-    <definedName name="gamma_oil_" localSheetId="0">Упражнение!$C$7</definedName>
-    <definedName name="Head_ESP_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Hmes_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Hpump_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="KsepGasSep_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="N_" localSheetId="0">Упражнение!$C$24</definedName>
-    <definedName name="NumStage_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Pb_" localSheetId="0">Упражнение!$C$11</definedName>
-    <definedName name="Pbuf_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Pdis_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="PI_" localSheetId="0">Упражнение!$C$21</definedName>
-    <definedName name="Pintake_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Pres_" localSheetId="0">Упражнение!$C$20</definedName>
-    <definedName name="PumpID_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Pwf_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Pwf_test">Упражнение!$C$18</definedName>
-    <definedName name="Pбуф__атм">Фонтан!$B$14</definedName>
-    <definedName name="Pбуф_расч__атм">Фонтан!$E$14</definedName>
-    <definedName name="Pзаб__атм">Фонтан!$B$15</definedName>
-    <definedName name="Pзаб_расч__атм">Фонтан!$E$15</definedName>
-    <definedName name="Pзатр__атм">Фонтан!$B$12</definedName>
-    <definedName name="Pзатр_расч__атм">Фонтан!$E$12</definedName>
-    <definedName name="Pлин__атм">Фонтан!$B$13</definedName>
-    <definedName name="Pлин_расч__атм">Фонтан!$E$13</definedName>
-    <definedName name="Pнас__атм">Фонтан!$B$29</definedName>
-    <definedName name="Pпласт__атм">Фонтан!$B$19</definedName>
-    <definedName name="Q_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Q_ESP_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Q_test">Упражнение!$C$17</definedName>
-    <definedName name="Qmax" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Qж__м3_сут">Фонтан!$B$9</definedName>
-    <definedName name="Qж_расч__м3_сут">Фонтан!$E$9</definedName>
-    <definedName name="Qн__т_сут">Фонтан!$B$10</definedName>
-    <definedName name="Qн_расч__т_сут">Фонтан!$E$10</definedName>
-    <definedName name="Rp_" localSheetId="0">Упражнение!$C$10</definedName>
-    <definedName name="Rsb_" localSheetId="0">Упражнение!$C$9</definedName>
-    <definedName name="Rsb__м3_м3">Фонтан!$B$28</definedName>
-    <definedName name="testRange">Фонтан!$H$45:$H$61,Фонтан!$J$45:$J$61</definedName>
-    <definedName name="testRange1">Фонтан!$L$45:$M$62</definedName>
-    <definedName name="testRange2">Фонтан!$N$45:$O$66</definedName>
-    <definedName name="Tgrad" localSheetId="0">Упражнение!$C$22</definedName>
-    <definedName name="Tintake_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="Tres_" localSheetId="0">Упражнение!$C$12</definedName>
-    <definedName name="Udl_" localSheetId="0">Упражнение!#REF!</definedName>
-    <definedName name="wc_" localSheetId="0">Упражнение!$C$14</definedName>
-    <definedName name="Геоградиент">Фонтан!$I$45:$J$61</definedName>
-    <definedName name="ГФ__м3_м3">Фонтан!$B$27</definedName>
-    <definedName name="Инклинометрия">Фонтан!$A$45:$B$200</definedName>
-    <definedName name="Колонна_НКТ">Фонтан!$F$45:$F$61,Фонтан!$H$45:$H$61</definedName>
-    <definedName name="Корреляция_для_PVT">Фонтан!$L$2</definedName>
-    <definedName name="Корреляция_для_давления">Фонтан!$L$1</definedName>
-    <definedName name="Кпр__м3_сут_атм">Фонтан!$B$20</definedName>
+    <definedName name="Bob_" localSheetId="0">IPR!$C$14</definedName>
+    <definedName name="dTdh_">IPR!#REF!</definedName>
+    <definedName name="fw_">IPR!$C$16</definedName>
+    <definedName name="gamma_gas_" localSheetId="0">IPR!$C$9</definedName>
+    <definedName name="gamma_oil_" localSheetId="0">IPR!$C$7</definedName>
+    <definedName name="gamma_wat_">IPR!$C$8</definedName>
+    <definedName name="muob_">IPR!$C$15</definedName>
+    <definedName name="N_" localSheetId="0">IPR!$C$29</definedName>
+    <definedName name="Pb_">IPR!$C$17</definedName>
+    <definedName name="Pb_cal_" localSheetId="0">IPR!$C$12</definedName>
+    <definedName name="PI_" localSheetId="0">IPR!$C$25</definedName>
+    <definedName name="Pres_" localSheetId="0">IPR!$C$24</definedName>
+    <definedName name="Pwftest_">IPR!$C$21</definedName>
+    <definedName name="qltest_">IPR!$C$20</definedName>
+    <definedName name="qmax_">IPR!$C$26</definedName>
+    <definedName name="Rp_" localSheetId="0">IPR!$C$11</definedName>
+    <definedName name="Rsb_" localSheetId="0">IPR!$C$10</definedName>
+    <definedName name="Tres_" localSheetId="0">IPR!$C$13</definedName>
     <definedName name="Месторождение_" localSheetId="2">Фонтан!$B$4</definedName>
-    <definedName name="Нвд_изм___м">Фонтан!$B$32</definedName>
-    <definedName name="Нсп_изм__м">Фонтан!$B$33</definedName>
-    <definedName name="Обв._расч">Фонтан!$E$11</definedName>
-    <definedName name="Обводненность">Фонтан!$B$11</definedName>
-    <definedName name="Распределение_давления_расчет">Фонтан!$R$45:$S$94</definedName>
-    <definedName name="Распределение_температуры_расчет">Фонтан!$T$45:$U$94</definedName>
-    <definedName name="Распределение_узловой_анализ_Пов_лин">Фонтан!$V$45:$W$94</definedName>
-    <definedName name="Тпласт__С">Фонтан!$B$21</definedName>
-    <definedName name="Тпов__С">Фонтан!$B$16</definedName>
-    <definedName name="Уд.плотность_воды">Фонтан!$B$25</definedName>
-    <definedName name="Уд.плотность_газа">Фонтан!$B$26</definedName>
-    <definedName name="Уд.плотность_нефти">Фонтан!$B$24</definedName>
-    <definedName name="Шероховатость__м">Фонтан!$B$35</definedName>
-    <definedName name="Эксплуатационная_колонна">Фонтан!$C$45:$C$61,Фонтан!$E$45:$E$61</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>rnt</author>
   </authors>
   <commentList>
-    <comment ref="P3" authorId="0">
+    <comment ref="P3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2794" uniqueCount="325">
   <si>
     <t>Конструкция</t>
   </si>
@@ -1000,104 +958,447 @@
     <t>ЭЦН5А-700Э (из ЭЦН5А-500Э)</t>
   </si>
   <si>
-    <t>кг/м3</t>
-  </si>
-  <si>
     <t>м3/м3</t>
-  </si>
-  <si>
-    <t>м3/т</t>
-  </si>
-  <si>
-    <t>атм</t>
-  </si>
-  <si>
-    <t>С</t>
   </si>
   <si>
     <t>%</t>
   </si>
   <si>
-    <t>Qmax</t>
-  </si>
-  <si>
-    <t>м3/сут/атм</t>
-  </si>
-  <si>
-    <t>град/100 м</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>,</t>
+    <t>Измеренные значение дебита и забойного давления</t>
   </si>
   <si>
-    <t>Упражнения по курсу "Механизированная добыча нефти"</t>
+    <t>Упражнения по работе с макросами Unifloc VBA</t>
   </si>
   <si>
-    <t>Физико - химические свойства флюида</t>
+    <t>Физико - химические свойства флюида   PVT</t>
   </si>
   <si>
-    <t>Удельная плотность нефти</t>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>o</t>
+    </r>
   </si>
   <si>
-    <t>Удельная плотность газа</t>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>w</t>
+    </r>
   </si>
   <si>
-    <t>Газосодержание при давлении насыщения</t>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
   </si>
   <si>
-    <t>Газовый фактор</t>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sb</t>
+    </r>
   </si>
   <si>
-    <t>Давление насыщения (при пластовой температуре)</t>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
   </si>
   <si>
-    <t>Пластовая температура</t>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
   </si>
   <si>
-    <t>Объемный коээфициент нефти (при пластовом давлении и температуре)</t>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b cal</t>
+    </r>
   </si>
   <si>
-    <t>Пласт</t>
+    <t>атмa</t>
   </si>
   <si>
-    <t>Пластовое давление</t>
+    <t>МПа</t>
   </si>
   <si>
-    <t>Коэффициет продуктивности</t>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>res</t>
+    </r>
   </si>
   <si>
-    <t>Темп град</t>
+    <t>Ф</t>
   </si>
   <si>
-    <t>Построить индикаторную кривую</t>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ob cal</t>
+    </r>
   </si>
   <si>
-    <t>Упражнение 1</t>
+    <r>
+      <t>μ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ob cal</t>
+    </r>
   </si>
   <si>
-    <t>м3/сут</t>
+    <t>сП</t>
   </si>
   <si>
-    <t>Забойное давление</t>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
   </si>
   <si>
-    <t>Измеренные значение дебита и забойного давления</t>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>w</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>l test</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>wf test</t>
+    </r>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>res</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>С</t>
+    </r>
+  </si>
+  <si>
+    <t>атма</t>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/сут</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/сут/атм</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>max</t>
+    </r>
+  </si>
+  <si>
+    <t>Настройка графика</t>
+  </si>
+  <si>
+    <t>Упражнение</t>
+  </si>
+  <si>
+    <t>Постройте индикаторную кривую</t>
+  </si>
+  <si>
+    <r>
+      <t>кг/м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>м</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>/т</t>
+    </r>
+  </si>
+  <si>
+    <t>Построение индикаторной кривой</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -1202,6 +1503,66 @@
       <color theme="0" tint="-0.34998626667073579"/>
       <name val="Arial Cyr"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1704,7 +2065,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1853,44 +2214,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="2" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1898,54 +2227,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1954,16 +2239,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2004,14 +2284,98 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Iau?iue_AA_1" xfId="1"/>
+    <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Гиперссылка" xfId="6" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
-    <cellStyle name="Обычный 3" xfId="3"/>
-    <cellStyle name="Обычный 3 2" xfId="5"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Обычный 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Обычный 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Финансовый" xfId="4" builtinId="3"/>
   </cellStyles>
   <dxfs count="6">
@@ -2108,612 +2472,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Характеристика</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> ЭЦН</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Упражнение 2'!#REF!</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Упражнение 2'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Упражнение 2'!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E43C-4F13-9075-F8BD9F2DD907}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="228121344"/>
-        <c:axId val="228121920"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Упражнение 2'!#REF!</c:f>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Упражнение 2'!#REF!</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:filteredSeriesTitle>
-                <c15:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Упражнение 2'!#REF!</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>#REF!</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c15:tx>
-              </c15:filteredSeriesTitle>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E43C-4F13-9075-F8BD9F2DD907}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="228803136"/>
-        <c:axId val="228802560"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="228121344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Дебит, м3/сут</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="228121920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="228121920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="450"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>Напор</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> номинальный, м</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="228121344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="228802560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>КПД, д.е.</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="228803136"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="228803136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="228802560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2757,7 +2516,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2812,7 +2570,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Упражнение!$C$33:$C$53</c:f>
+              <c:f>IPR!$C$40:$C$60</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2820,71 +2578,71 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2720967404593253</c:v>
+                  <c:v>8.8926248248313904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.544193480918651</c:v>
+                  <c:v>17.785249649662781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.816290221377976</c:v>
+                  <c:v>26.677874474494171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.088386961837301</c:v>
+                  <c:v>35.570499299325562</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.360483702296627</c:v>
+                  <c:v>44.463124124156948</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.632580442755952</c:v>
+                  <c:v>53.355748948988335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.904677183215284</c:v>
+                  <c:v>62.248373773819722</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.176773923674602</c:v>
+                  <c:v>71.140998598651109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.448870664133921</c:v>
+                  <c:v>80.033623423482496</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>92.720967404593239</c:v>
+                  <c:v>88.926248248313883</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>101.99306414505256</c:v>
+                  <c:v>97.818873073145269</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111.26516088551188</c:v>
+                  <c:v>106.71149789797666</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>120.53725762597119</c:v>
+                  <c:v>115.60412272280804</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>129.80935436643051</c:v>
+                  <c:v>124.49674754763943</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>139.08145110688983</c:v>
+                  <c:v>133.38937237247083</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>148.35354784734915</c:v>
+                  <c:v>142.28199719730222</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>157.62564458780847</c:v>
+                  <c:v>151.1746220221336</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>166.89774132826778</c:v>
+                  <c:v>160.06724684696499</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>176.1698380687271</c:v>
+                  <c:v>168.95987167179638</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>185.44193480918642</c:v>
+                  <c:v>177.85249649662777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Упражнение!$D$33:$D$53</c:f>
+              <c:f>IPR!$D$40:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2892,72 +2650,72 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>240.72790325954068</c:v>
+                  <c:v>241.18943569361363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>231.45580651908136</c:v>
+                  <c:v>232.37887138722724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>222.18370977862202</c:v>
+                  <c:v>223.56830708084087</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212.9116130381627</c:v>
+                  <c:v>214.7577427744545</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>203.63951629770338</c:v>
+                  <c:v>205.9471784680681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>194.36741955724403</c:v>
+                  <c:v>197.13661416168173</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>185.09532281678472</c:v>
+                  <c:v>188.32604985529537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>175.8232260763254</c:v>
+                  <c:v>179.515485548909</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>166.55112933586608</c:v>
+                  <c:v>170.70463595367303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>157.27903259540676</c:v>
+                  <c:v>161.7147091115996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>147.99764536187905</c:v>
+                  <c:v>152.35792431084624</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138.42016771611472</c:v>
+                  <c:v>142.57026706449346</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>128.34751399512305</c:v>
+                  <c:v>132.26660957004842</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>117.66700980586805</c:v>
+                  <c:v>121.32944771811133</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.21540748381179</c:v>
+                  <c:v>109.5884875991931</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>93.739922208814505</c:v>
+                  <c:v>96.779927548549026</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.809293083534243</c:v>
+                  <c:v>82.453437554837336</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63.563197048586858</c:v>
+                  <c:v>65.709709879626914</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.664035286213576</c:v>
+                  <c:v>44.099314999491639</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1315189037181028E-13</c:v>
+                  <c:v>1.000000000000357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FED1-4E43-8925-1D0615FE8F6E}"/>
+              <c16:uniqueId val="{00000000-1234-4575-AD62-0EA9CB906778}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2966,79 +2724,79 @@
           <c:order val="1"/>
           <c:xVal>
             <c:numRef>
-              <c:f>Упражнение!$E$33:$E$53</c:f>
+              <c:f>IPR!$E$40:$E$60</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2720967404593182</c:v>
+                  <c:v>8.8926248248313815</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.544193480918636</c:v>
+                  <c:v>17.785249649662791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.816290221377983</c:v>
+                  <c:v>26.677874474494171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37.088386961837301</c:v>
+                  <c:v>35.570499299325554</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.360483702296619</c:v>
+                  <c:v>44.463124124156963</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.632580442755966</c:v>
+                  <c:v>53.355748948988342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.904677183215284</c:v>
+                  <c:v>62.248373773819722</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74.176773923674602</c:v>
+                  <c:v>71.140998598651109</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.448870664133921</c:v>
+                  <c:v>80.033623423482865</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>92.720967404593239</c:v>
+                  <c:v>88.926248248314067</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>101.99306414505277</c:v>
+                  <c:v>97.818873073145284</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111.26516088551185</c:v>
+                  <c:v>106.7114978979765</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>120.53725762597141</c:v>
+                  <c:v>115.60412272280772</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>129.80935436643048</c:v>
+                  <c:v>124.4967475476399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>139.08145110689006</c:v>
+                  <c:v>133.38937237247077</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>148.35354784734912</c:v>
+                  <c:v>142.28199719730233</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>157.62564458780869</c:v>
+                  <c:v>151.17462202213355</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>166.89774132826776</c:v>
+                  <c:v>160.06724684696508</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>176.16983806872733</c:v>
+                  <c:v>168.95987167179629</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>185.44193480918642</c:v>
+                  <c:v>177.85249649662777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Упражнение!$D$33:$D$53</c:f>
+              <c:f>IPR!$D$40:$D$60</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3046,69 +2804,74 @@
                   <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>240.72790325954068</c:v>
+                  <c:v>241.18943569361363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>231.45580651908136</c:v>
+                  <c:v>232.37887138722724</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>222.18370977862202</c:v>
+                  <c:v>223.56830708084087</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>212.9116130381627</c:v>
+                  <c:v>214.7577427744545</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>203.63951629770338</c:v>
+                  <c:v>205.9471784680681</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>194.36741955724403</c:v>
+                  <c:v>197.13661416168173</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>185.09532281678472</c:v>
+                  <c:v>188.32604985529537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>175.8232260763254</c:v>
+                  <c:v>179.515485548909</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>166.55112933586608</c:v>
+                  <c:v>170.70463595367303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>157.27903259540676</c:v>
+                  <c:v>161.7147091115996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>147.99764536187905</c:v>
+                  <c:v>152.35792431084624</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>138.42016771611472</c:v>
+                  <c:v>142.57026706449346</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>128.34751399512305</c:v>
+                  <c:v>132.26660957004842</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>117.66700980586805</c:v>
+                  <c:v>121.32944771811133</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.21540748381179</c:v>
+                  <c:v>109.5884875991931</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>93.739922208814505</c:v>
+                  <c:v>96.779927548549026</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.809293083534243</c:v>
+                  <c:v>82.453437554837336</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63.563197048586858</c:v>
+                  <c:v>65.709709879626914</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42.664035286213576</c:v>
+                  <c:v>44.099314999491639</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1315189037181028E-13</c:v>
+                  <c:v>1.000000000000357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1234-4575-AD62-0EA9CB906778}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3127,7 +2890,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Упражнение!$C$17</c:f>
+              <c:f>IPR!$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3139,7 +2902,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Упражнение!$C$18</c:f>
+              <c:f>IPR!$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3150,6 +2913,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1234-4575-AD62-0EA9CB906778}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3320,7 +3088,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3438,8 +3205,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3832,7 +3599,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F7E2-4032-B289-8C7185A758F8}"/>
             </c:ext>
@@ -4022,8 +3789,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4416,7 +4183,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0A18-4E13-BB26-5A870EB06542}"/>
             </c:ext>
@@ -4462,7 +4229,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0A18-4E13-BB26-5A870EB06542}"/>
             </c:ext>
@@ -4652,8 +4419,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5043,7 +4810,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C1F6-46B5-A2FF-64A66E36395B}"/>
             </c:ext>
@@ -5233,1118 +5000,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="22" fmlaLink="$AQ$4" fmlaRange="$AP$4:$AP$6" noThreeD="1" sel="0" val="0"/>
 </file>
@@ -6377,90 +5032,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>188917</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>252633</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25097</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Диаграмма 7"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>414617</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>15075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>291353</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Диаграмма 12"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:colOff>10984</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>24473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>121025</xdr:rowOff>
+      <xdr:colOff>583407</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>18739</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="TextBox 18"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A13FBC-2ABD-4343-8F48-9CC2C7C1C4D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6006353" y="392207"/>
-          <a:ext cx="5145741" cy="3841377"/>
+          <a:off x="4811584" y="996023"/>
+          <a:ext cx="5868323" cy="2261216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6497,13 +5094,34 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100"/>
-            <a:t>Дополнительные вопросы</a:t>
+            <a:t>Постройте</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t> по упражению (направления исследований)</a:t>
+            <a:t> индикаторную кривую для заданных параметров пласта и флюида</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" indent="-171450">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Вопросы</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> по упражению: </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6512,12 +5130,58 @@
         <a:p>
           <a:r>
             <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
-            <a:t>1. Какие параметры влияют на перепад давления в насосе?</a:t>
+            <a:t>1. Как можно оценить продуктивность скважины?</a:t>
           </a:r>
-          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t>2. Зависит ли вид индикаторной кривой от газового фактора?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="ru-RU" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>305535</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>2932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF8102E-9195-4DB1-813A-9412A6BD3596}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6547,11 +5211,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s81921"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001400100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6559,6 +5226,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6588,11 +5269,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s81922"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002400100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6600,6 +5284,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -6629,11 +5327,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s81923"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003400100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6641,6 +5342,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -6689,11 +5396,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s81924"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004400100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6701,6 +5411,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -6764,11 +5480,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s81925"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005400100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6776,6 +5495,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -6824,11 +5549,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s81926"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006400100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6836,6 +5564,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -6877,7 +5611,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Диаграмма 9"/>
+        <xdr:cNvPr id="10" name="Диаграмма 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6909,7 +5649,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Диаграмма 10"/>
+        <xdr:cNvPr id="11" name="Диаграмма 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6948,11 +5694,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s81928"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008400100}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -6960,6 +5709,24 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
@@ -6996,7 +5763,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7050,7 +5823,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Рисунок 13" descr="Животных, Барсук, Млекопитающее, Серый"/>
+        <xdr:cNvPr id="14" name="Рисунок 13" descr="Животных, Барсук, Млекопитающее, Серый">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7105,7 +5884,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Диаграмма 12"/>
+        <xdr:cNvPr id="13" name="Диаграмма 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7136,10 +5921,807 @@
       <definedName name="IPR_PI_sm3dayatm"/>
       <definedName name="IPR_Pwf_atma"/>
       <definedName name="IPR_Ql_sm3Day"/>
+      <definedName name="PVT_Pb_atma"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="База насосов"/>
+      <sheetName val="PVT"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="22">
+          <cell r="D22" t="str">
+            <v>Rs</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>Bo</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>μo</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>μg</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>μw</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v>ρg</v>
+          </cell>
+          <cell r="J22" t="str">
+            <v>ρw</v>
+          </cell>
+          <cell r="K22" t="str">
+            <v>ρo</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>1</v>
+          </cell>
+          <cell r="D23">
+            <v>0.27348943697138201</v>
+          </cell>
+          <cell r="E23">
+            <v>1.0376527596788165</v>
+          </cell>
+          <cell r="F23">
+            <v>3.4463445519065772</v>
+          </cell>
+          <cell r="G23">
+            <v>1.2105546241270334E-2</v>
+          </cell>
+          <cell r="H23">
+            <v>0.33586886209810729</v>
+          </cell>
+          <cell r="I23">
+            <v>0.80923453779557586</v>
+          </cell>
+          <cell r="J23">
+            <v>970.56653980677311</v>
+          </cell>
+          <cell r="K23">
+            <v>829.05123087842594</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>5</v>
+          </cell>
+          <cell r="D24">
+            <v>1.8988927763676839</v>
+          </cell>
+          <cell r="E24">
+            <v>1.0403173727412995</v>
+          </cell>
+          <cell r="F24">
+            <v>3.2336371116505358</v>
+          </cell>
+          <cell r="G24">
+            <v>1.2152607093515563E-2</v>
+          </cell>
+          <cell r="H24">
+            <v>0.3366698582445789</v>
+          </cell>
+          <cell r="I24">
+            <v>4.0720135434559541</v>
+          </cell>
+          <cell r="J24">
+            <v>970.6078507425874</v>
+          </cell>
+          <cell r="K24">
+            <v>828.45478161425683</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>10</v>
+          </cell>
+          <cell r="D25">
+            <v>4.3746222464887943</v>
+          </cell>
+          <cell r="E25">
+            <v>1.0444102727998681</v>
+          </cell>
+          <cell r="F25">
+            <v>2.9618622051682864</v>
+          </cell>
+          <cell r="G25">
+            <v>1.2231437157962866E-2</v>
+          </cell>
+          <cell r="H25">
+            <v>0.33768124309210917</v>
+          </cell>
+          <cell r="I25">
+            <v>8.205184623817356</v>
+          </cell>
+          <cell r="J25">
+            <v>970.66190643699338</v>
+          </cell>
+          <cell r="K25">
+            <v>827.52497108427281</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>20</v>
+          </cell>
+          <cell r="D26">
+            <v>10.078146611354056</v>
+          </cell>
+          <cell r="E26">
+            <v>1.0539877935797775</v>
+          </cell>
+          <cell r="F26">
+            <v>2.4986426136130651</v>
+          </cell>
+          <cell r="G26">
+            <v>1.242965872389205E-2</v>
+          </cell>
+          <cell r="H26">
+            <v>0.33973781166863876</v>
+          </cell>
+          <cell r="I26">
+            <v>16.625539084112528</v>
+          </cell>
+          <cell r="J26">
+            <v>970.77807803228427</v>
+          </cell>
+          <cell r="K26">
+            <v>825.29416628033573</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>40</v>
+          </cell>
+          <cell r="D27">
+            <v>23.21778507880758</v>
+          </cell>
+          <cell r="E27">
+            <v>1.0767538727082331</v>
+          </cell>
+          <cell r="F27">
+            <v>1.8766576953859042</v>
+          </cell>
+          <cell r="G27">
+            <v>1.2940038915198142E-2</v>
+          </cell>
+          <cell r="H27">
+            <v>0.34398614434757446</v>
+          </cell>
+          <cell r="I27">
+            <v>33.869447334844871</v>
+          </cell>
+          <cell r="J27">
+            <v>971.04268997016459</v>
+          </cell>
+          <cell r="K27">
+            <v>819.77149727308722</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>60</v>
+          </cell>
+          <cell r="D28">
+            <v>37.829853777030927</v>
+          </cell>
+          <cell r="E28">
+            <v>1.1030546590708084</v>
+          </cell>
+          <cell r="F28">
+            <v>1.500453325635279</v>
+          </cell>
+          <cell r="G28">
+            <v>1.3565718967699225E-2</v>
+          </cell>
+          <cell r="H28">
+            <v>0.34841473772767878</v>
+          </cell>
+          <cell r="I28">
+            <v>51.277440019390482</v>
+          </cell>
+          <cell r="J28">
+            <v>971.35038666714604</v>
+          </cell>
+          <cell r="K28">
+            <v>813.17220185907354</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>80</v>
+          </cell>
+          <cell r="D29">
+            <v>53.488559430003527</v>
+          </cell>
+          <cell r="E29">
+            <v>1.1322102757286072</v>
+          </cell>
+          <cell r="F29">
+            <v>1.2534060565552225</v>
+          </cell>
+          <cell r="G29">
+            <v>1.4281265311255864E-2</v>
+          </cell>
+          <cell r="H29">
+            <v>0.35302359180895171</v>
+          </cell>
+          <cell r="I29">
+            <v>68.472148721841492</v>
+          </cell>
+          <cell r="J29">
+            <v>971.70124991871342</v>
+          </cell>
+          <cell r="K29">
+            <v>805.7492481751533</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>100</v>
+          </cell>
+          <cell r="D30">
+            <v>69.974621365274899</v>
+          </cell>
+          <cell r="E30">
+            <v>1.1638405832814809</v>
+          </cell>
+          <cell r="F30">
+            <v>1.0798118334263502</v>
+          </cell>
+          <cell r="G30">
+            <v>1.5067188178231777E-2</v>
+          </cell>
+          <cell r="H30">
+            <v>0.3578127065913933</v>
+          </cell>
+          <cell r="I30">
+            <v>85.167243557721918</v>
+          </cell>
+          <cell r="J30">
+            <v>972.09537309020902</v>
+          </cell>
+          <cell r="K30">
+            <v>797.69549994548436</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>120</v>
+          </cell>
+          <cell r="D31">
+            <v>80</v>
+          </cell>
+          <cell r="E31">
+            <v>1.1806672063194987</v>
+          </cell>
+          <cell r="F31">
+            <v>1.0143832116351985</v>
+          </cell>
+          <cell r="G31">
+            <v>1.5906881569035945E-2</v>
+          </cell>
+          <cell r="H31">
+            <v>0.36278208207500345</v>
+          </cell>
+          <cell r="I31">
+            <v>101.16827513716821</v>
+          </cell>
+          <cell r="J31">
+            <v>972.53286117907339</v>
+          </cell>
+          <cell r="K31">
+            <v>794.62594961422008</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>140</v>
+          </cell>
+          <cell r="D32">
+            <v>80</v>
+          </cell>
+          <cell r="E32">
+            <v>1.1755656078867194</v>
+          </cell>
+          <cell r="F32">
+            <v>1.0516696946026671</v>
+          </cell>
+          <cell r="G32">
+            <v>1.6786635470529682E-2</v>
+          </cell>
+          <cell r="H32">
+            <v>0.36793171825978227</v>
+          </cell>
+          <cell r="I32">
+            <v>116.36900892897458</v>
+          </cell>
+          <cell r="J32">
+            <v>973.01383088495345</v>
+          </cell>
+          <cell r="K32">
+            <v>798.07438539015709</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>160</v>
+          </cell>
+          <cell r="D33">
+            <v>80</v>
+          </cell>
+          <cell r="E33">
+            <v>1.1717538804745498</v>
+          </cell>
+          <cell r="F33">
+            <v>1.0946410836040579</v>
+          </cell>
+          <cell r="G33">
+            <v>1.7696649218225117E-2</v>
+          </cell>
+          <cell r="H33">
+            <v>0.3732616151457297</v>
+          </cell>
+          <cell r="I33">
+            <v>130.74752734310729</v>
+          </cell>
+          <cell r="J33">
+            <v>973.53841068777274</v>
+          </cell>
+          <cell r="K33">
+            <v>800.67052956551083</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>180</v>
+          </cell>
+          <cell r="D34">
+            <v>80</v>
+          </cell>
+          <cell r="E34">
+            <v>1.1687977504115337</v>
+          </cell>
+          <cell r="F34">
+            <v>1.1427623596214616</v>
+          </cell>
+          <cell r="G34">
+            <v>1.8632637091865627E-2</v>
+          </cell>
+          <cell r="H34">
+            <v>0.37877177273284574</v>
+          </cell>
+          <cell r="I34">
+            <v>144.3646036110502</v>
+          </cell>
+          <cell r="J34">
+            <v>974.10674093385262</v>
+          </cell>
+          <cell r="K34">
+            <v>802.69559012212653</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>200</v>
+          </cell>
+          <cell r="D35">
+            <v>80</v>
+          </cell>
+          <cell r="E35">
+            <v>1.1664382168802112</v>
+          </cell>
+          <cell r="F35">
+            <v>1.1956079698529825</v>
+          </cell>
+          <cell r="G35">
+            <v>1.959793520234334E-2</v>
+          </cell>
+          <cell r="H35">
+            <v>0.38446219102113038</v>
+          </cell>
+          <cell r="I35">
+            <v>157.36515020693065</v>
+          </cell>
+          <cell r="J35">
+            <v>974.71897393020072</v>
+          </cell>
+          <cell r="K35">
+            <v>804.3193256384435</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>220</v>
+          </cell>
+          <cell r="D36">
+            <v>80</v>
+          </cell>
+          <cell r="E36">
+            <v>1.1645112328704794</v>
+          </cell>
+          <cell r="F36">
+            <v>1.2528187080253694</v>
+          </cell>
+          <cell r="G36">
+            <v>2.0606043940918212E-2</v>
+          </cell>
+          <cell r="H36">
+            <v>0.39033287001058364</v>
+          </cell>
+          <cell r="I36">
+            <v>169.9814069327287</v>
+          </cell>
+          <cell r="J36">
+            <v>975.37527404707998</v>
+          </cell>
+          <cell r="K36">
+            <v>805.65027929133623</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>240</v>
+          </cell>
+          <cell r="D37">
+            <v>80</v>
+          </cell>
+          <cell r="E37">
+            <v>1.1629078448678598</v>
+          </cell>
+          <cell r="F37">
+            <v>1.3140740183946704</v>
+          </cell>
+          <cell r="G37">
+            <v>2.1683383160038823E-2</v>
+          </cell>
+          <cell r="H37">
+            <v>0.39638380970120551</v>
+          </cell>
+          <cell r="I37">
+            <v>182.53336625994487</v>
+          </cell>
+          <cell r="J37">
+            <v>976.07581782899126</v>
+          </cell>
+          <cell r="K37">
+            <v>806.76108957421775</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>260</v>
+          </cell>
+          <cell r="D38">
+            <v>80</v>
+          </cell>
+          <cell r="E38">
+            <v>1.1615528563960344</v>
+          </cell>
+          <cell r="F38">
+            <v>1.3790736979594145</v>
+          </cell>
+          <cell r="G38">
+            <v>2.2871605188958734E-2</v>
+          </cell>
+          <cell r="H38">
+            <v>0.40261501009299605</v>
+          </cell>
+          <cell r="I38">
+            <v>195.41703229727273</v>
+          </cell>
+          <cell r="J38">
+            <v>976.82079411420705</v>
+          </cell>
+          <cell r="K38">
+            <v>807.70220212873562</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>280</v>
+          </cell>
+          <cell r="D39">
+            <v>80</v>
+          </cell>
+          <cell r="E39">
+            <v>1.1603926943680387</v>
+          </cell>
+          <cell r="F39">
+            <v>1.447525646071635</v>
+          </cell>
+          <cell r="G39">
+            <v>2.422784902336915E-2</v>
+          </cell>
+          <cell r="H39">
+            <v>0.4090264711859552</v>
+          </cell>
+          <cell r="I39">
+            <v>209.06416247293561</v>
+          </cell>
+          <cell r="J39">
+            <v>977.61040416301159</v>
+          </cell>
+          <cell r="K39">
+            <v>808.5097437733757</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>300</v>
+          </cell>
+          <cell r="D40">
+            <v>80</v>
+          </cell>
+          <cell r="E40">
+            <v>1.1593881579705583</v>
+          </cell>
+          <cell r="F40">
+            <v>1.5191376962112864</v>
+          </cell>
+          <cell r="G40">
+            <v>2.5819443725453597E-2</v>
+          </cell>
+          <cell r="H40">
+            <v>0.4156181929800829</v>
+          </cell>
+          <cell r="I40">
+            <v>223.85018235404627</v>
+          </cell>
+          <cell r="J40">
+            <v>978.4448617948093</v>
+          </cell>
+          <cell r="K40">
+            <v>809.2102662513347</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>320</v>
+          </cell>
+          <cell r="D41">
+            <v>80</v>
+          </cell>
+          <cell r="E41">
+            <v>1.1585099020034806</v>
+          </cell>
+          <cell r="F41">
+            <v>1.5936123222926795</v>
+          </cell>
+          <cell r="G41">
+            <v>2.7706850757567025E-2</v>
+          </cell>
+          <cell r="H41">
+            <v>0.42239017547537927</v>
+          </cell>
+          <cell r="I41">
+            <v>239.92959410590848</v>
+          </cell>
+          <cell r="J41">
+            <v>979.32439353427742</v>
+          </cell>
+          <cell r="K41">
+            <v>809.82372129710234</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>340</v>
+          </cell>
+          <cell r="D42">
+            <v>80</v>
+          </cell>
+          <cell r="E42">
+            <v>1.1577355227772113</v>
+          </cell>
+          <cell r="F42">
+            <v>1.6706434440866633</v>
+          </cell>
+          <cell r="G42">
+            <v>2.9907947532178368E-2</v>
+          </cell>
+          <cell r="H42">
+            <v>0.42934241867184425</v>
+          </cell>
+          <cell r="I42">
+            <v>257.01485989595426</v>
+          </cell>
+          <cell r="J42">
+            <v>980.24923876675155</v>
+          </cell>
+          <cell r="K42">
+            <v>810.36539135418775</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>360</v>
+          </cell>
+          <cell r="D43">
+            <v>80</v>
+          </cell>
+          <cell r="E43">
+            <v>1.1570476202397262</v>
+          </cell>
+          <cell r="F43">
+            <v>1.7499148114006253</v>
+          </cell>
+          <cell r="G43">
+            <v>3.234779767218704E-2</v>
+          </cell>
+          <cell r="H43">
+            <v>0.4364749225694779</v>
+          </cell>
+          <cell r="I43">
+            <v>274.21422686778067</v>
+          </cell>
+          <cell r="J43">
+            <v>981.21964990304559</v>
+          </cell>
+          <cell r="K43">
+            <v>810.84718000251246</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>380</v>
+          </cell>
+          <cell r="D44">
+            <v>80</v>
+          </cell>
+          <cell r="E44">
+            <v>1.1564324749673425</v>
+          </cell>
+          <cell r="F44">
+            <v>1.8310996013758258</v>
+          </cell>
+          <cell r="G44">
+            <v>3.4831394992291626E-2</v>
+          </cell>
+          <cell r="H44">
+            <v>0.4437876871682801</v>
+          </cell>
+          <cell r="I44">
+            <v>290.16236861656057</v>
+          </cell>
+          <cell r="J44">
+            <v>982.23589255391971</v>
+          </cell>
+          <cell r="K44">
+            <v>811.27849684997329</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>400</v>
+          </cell>
+          <cell r="D45">
+            <v>80</v>
+          </cell>
+          <cell r="E45">
+            <v>1.1558791238484611</v>
+          </cell>
+          <cell r="F45">
+            <v>1.9138609593794527</v>
+          </cell>
+          <cell r="G45">
+            <v>3.7103767854624728E-2</v>
+          </cell>
+          <cell r="H45">
+            <v>0.45128071246825097</v>
+          </cell>
+          <cell r="I45">
+            <v>303.59340071013372</v>
+          </cell>
+          <cell r="J45">
+            <v>983.29824571442282</v>
+          </cell>
+          <cell r="K45">
+            <v>811.6668781734993</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>420</v>
+          </cell>
+          <cell r="D46">
+            <v>80</v>
+          </cell>
+          <cell r="E46">
+            <v>1.1553787009926739</v>
+          </cell>
+          <cell r="F46">
+            <v>1.9978532751006954</v>
+          </cell>
+          <cell r="G46">
+            <v>3.8995470709754662E-2</v>
+          </cell>
+          <cell r="H46">
+            <v>0.45895399846939039</v>
+          </cell>
+          <cell r="I46">
+            <v>314.04397739127421</v>
+          </cell>
+          <cell r="J46">
+            <v>984.4070019583562</v>
+          </cell>
+          <cell r="K46">
+            <v>812.01843100788551</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>440</v>
+          </cell>
+          <cell r="D47">
+            <v>80</v>
+          </cell>
+          <cell r="E47">
+            <v>1.1549239591296774</v>
+          </cell>
+          <cell r="F47">
+            <v>2.0827240254263466</v>
+          </cell>
+          <cell r="G47">
+            <v>4.0517403578276795E-2</v>
+          </cell>
+          <cell r="H47">
+            <v>0.46680754517169848</v>
+          </cell>
+          <cell r="I47">
+            <v>322.02345994955135</v>
+          </cell>
+          <cell r="J47">
+            <v>985.56246764310936</v>
+          </cell>
+          <cell r="K47">
+            <v>812.33815662374536</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>460</v>
+          </cell>
+          <cell r="D48">
+            <v>80</v>
+          </cell>
+          <cell r="E48">
+            <v>1.1545089163509799</v>
+          </cell>
+          <cell r="F48">
+            <v>2.168116042785591</v>
+          </cell>
+          <cell r="G48">
+            <v>4.1800659307069124E-2</v>
+          </cell>
+          <cell r="H48">
+            <v>0.47484135257517518</v>
+          </cell>
+          <cell r="I48">
+            <v>328.4808721005885</v>
+          </cell>
+          <cell r="J48">
+            <v>986.76496312514394</v>
+          </cell>
+          <cell r="K48">
+            <v>812.63018995583332</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7434,579 +7016,628 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист8">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C8F2CB-CA9A-4D36-8FBB-912A5C123D3A}">
+  <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A2:K127"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="4" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="22" max="32" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>292</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>299</v>
+      <c r="A2" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="93" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="53">
+        <v>0.86</v>
+      </c>
+      <c r="D7" s="94"/>
+      <c r="E7" s="104">
+        <f>gamma_oil_*1000</f>
+        <v>860</v>
+      </c>
+      <c r="F7" s="97" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="95" t="s">
+        <v>295</v>
+      </c>
+      <c r="C8" s="53">
+        <v>1</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="104">
+        <f>gamma_wat_*1000</f>
+        <v>1000</v>
+      </c>
+      <c r="F8" s="97" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="C9" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="104">
+        <f>gamma_gas_*1.22</f>
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="F9" s="97" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="96" t="s">
+        <v>297</v>
+      </c>
+      <c r="C10" s="53">
+        <v>100</v>
+      </c>
+      <c r="D10" s="95" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="104">
+        <f>Rsb_/gamma_oil_</f>
+        <v>116.27906976744187</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="96" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="53">
+        <v>100</v>
+      </c>
+      <c r="D11" s="95" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="104">
+        <f>Rsb_/gamma_oil_</f>
+        <v>116.27906976744187</v>
+      </c>
+      <c r="F11" s="97" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="95" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="53" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="C7" s="54">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="55">
-        <f>gamma_oil_*1000</f>
-        <v>750</v>
-      </c>
-      <c r="F7" s="56" t="s">
+      <c r="E12" s="104">
+        <f>Pb_cal_*1.01325/10</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="97" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="53">
+        <v>100</v>
+      </c>
+      <c r="D13" s="100" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" s="104">
+        <f>Tres_*9/5+32</f>
+        <v>212</v>
+      </c>
+      <c r="F13" s="97" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="96" t="s">
+        <v>305</v>
+      </c>
+      <c r="C14" s="53">
+        <v>1.2</v>
+      </c>
+      <c r="D14" s="95" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="53" t="s">
+      <c r="E14" s="95"/>
+      <c r="F14" s="94"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="98" t="s">
+        <v>306</v>
+      </c>
+      <c r="C15" s="53">
+        <v>1</v>
+      </c>
+      <c r="D15" s="95" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="95"/>
+      <c r="F15" s="94"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="98" t="s">
+        <v>309</v>
+      </c>
+      <c r="C16" s="53">
+        <v>22</v>
+      </c>
+      <c r="D16" s="95" t="s">
+        <v>289</v>
+      </c>
+      <c r="E16" s="105">
+        <f>fw_/100</f>
+        <v>0.22</v>
+      </c>
+      <c r="F16" s="97"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="95" t="s">
+        <v>308</v>
+      </c>
+      <c r="C17" s="54">
+        <f>[1]!PVT_Pb_atma(Tres_,gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_cal_,Tres_,Bob_,muob_)</f>
+        <v>171.07977523961091</v>
+      </c>
+      <c r="D17" s="95" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" s="104">
+        <f>Pb_cal_*1.01325/10</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="97" t="s">
         <v>302</v>
       </c>
-      <c r="C8" s="54">
-        <v>0.9</v>
-      </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="55">
-        <f>gamma_gas_*1.22</f>
-        <v>1.0980000000000001</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="C9" s="54">
-        <v>80</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="E9" s="58">
-        <f>Rsb_/gamma_oil_</f>
-        <v>106.66666666666667</v>
-      </c>
-      <c r="F9" s="56" t="s">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="52"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="98" t="s">
+        <v>310</v>
+      </c>
+      <c r="C20" s="53">
+        <v>100</v>
+      </c>
+      <c r="D20" s="95" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="98" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="53">
+        <v>150</v>
+      </c>
+      <c r="D21" s="95" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="53">
+        <v>250</v>
+      </c>
+      <c r="D24" s="95" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="98" t="s">
+        <v>312</v>
+      </c>
+      <c r="C25" s="99">
+        <f>[1]!IPR_PI_sm3dayatm(qltest_,Pwftest_,Pres_,fw_,Pb_)</f>
+        <v>1.0093138777031037</v>
+      </c>
+      <c r="D25" s="95" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="C26" s="54">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,1,fw_,Pb_)</f>
+        <v>177.85249649662782</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="98" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="C10" s="54">
-        <v>80</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>289</v>
-      </c>
-      <c r="E10" s="58">
-        <f>Rsb_/gamma_oil_</f>
-        <v>106.66666666666667</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="C11" s="54">
-        <v>150</v>
-      </c>
-      <c r="D11" s="53" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="C12" s="54">
-        <v>120</v>
-      </c>
-      <c r="D12" s="53" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="53" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="54">
-        <v>22</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="69" t="s">
-        <v>316</v>
-      </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="52"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="54">
-        <v>100</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="67" t="s">
-        <v>315</v>
-      </c>
-      <c r="C18" s="54">
-        <v>150</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="52" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="C20" s="54">
+      <c r="C29" s="53">
+        <v>20</v>
+      </c>
+      <c r="D29" s="102"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="101">
+        <v>0</v>
+      </c>
+      <c r="D40" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C40,fw_,Pb_)</f>
         <v>250</v>
       </c>
-      <c r="D20" s="53" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="C21" s="65">
-        <f>[1]!IPR_PI_sm3dayatm(Q_test,Pwf_test,Pres_,wc_,Pb_)</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="C22" s="54">
-        <v>3</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="C24" s="54">
-        <v>20</v>
-      </c>
-      <c r="D24" s="53"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>294</v>
-      </c>
-      <c r="D29" s="61">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,0,wc_,Pb_)</f>
-        <v>185.44193480918651</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="60">
+      <c r="E40" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D40,fw_,Pb_)</f>
         <v>0</v>
       </c>
-      <c r="D33" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C33,wc_,Pb_)</f>
-        <v>250</v>
-      </c>
-      <c r="E33" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D33,wc_,Pb_)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="60">
-        <f t="shared" ref="C34:C53" si="0">C33+$D$29/N_</f>
-        <v>9.2720967404593253</v>
-      </c>
-      <c r="D34" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C34,wc_,Pb_)</f>
-        <v>240.72790325954068</v>
-      </c>
-      <c r="E34" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D34,wc_,Pb_)</f>
-        <v>9.2720967404593182</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="60">
-        <f t="shared" si="0"/>
-        <v>18.544193480918651</v>
-      </c>
-      <c r="D35" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C35,wc_,Pb_)</f>
-        <v>231.45580651908136</v>
-      </c>
-      <c r="E35" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D35,wc_,Pb_)</f>
-        <v>18.544193480918636</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="60">
-        <f t="shared" si="0"/>
-        <v>27.816290221377976</v>
-      </c>
-      <c r="D36" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C36,wc_,Pb_)</f>
-        <v>222.18370977862202</v>
-      </c>
-      <c r="E36" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D36,wc_,Pb_)</f>
-        <v>27.816290221377983</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="60">
-        <f t="shared" si="0"/>
-        <v>37.088386961837301</v>
-      </c>
-      <c r="D37" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C37,wc_,Pb_)</f>
-        <v>212.9116130381627</v>
-      </c>
-      <c r="E37" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D37,wc_,Pb_)</f>
-        <v>37.088386961837301</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="60">
-        <f t="shared" si="0"/>
-        <v>46.360483702296627</v>
-      </c>
-      <c r="D38" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C38,wc_,Pb_)</f>
-        <v>203.63951629770338</v>
-      </c>
-      <c r="E38" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D38,wc_,Pb_)</f>
-        <v>46.360483702296619</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="60">
-        <f t="shared" si="0"/>
-        <v>55.632580442755952</v>
-      </c>
-      <c r="D39" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C39,wc_,Pb_)</f>
-        <v>194.36741955724403</v>
-      </c>
-      <c r="E39" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D39,wc_,Pb_)</f>
-        <v>55.632580442755966</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="60">
-        <f t="shared" si="0"/>
-        <v>64.904677183215284</v>
-      </c>
-      <c r="D40" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C40,wc_,Pb_)</f>
-        <v>185.09532281678472</v>
-      </c>
-      <c r="E40" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D40,wc_,Pb_)</f>
-        <v>64.904677183215284</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="60">
-        <f t="shared" si="0"/>
-        <v>74.176773923674602</v>
-      </c>
-      <c r="D41" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C41,wc_,Pb_)</f>
-        <v>175.8232260763254</v>
-      </c>
-      <c r="E41" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D41,wc_,Pb_)</f>
-        <v>74.176773923674602</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="60">
-        <f t="shared" si="0"/>
-        <v>83.448870664133921</v>
-      </c>
-      <c r="D42" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C42,wc_,Pb_)</f>
-        <v>166.55112933586608</v>
-      </c>
-      <c r="E42" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D42,wc_,Pb_)</f>
-        <v>83.448870664133921</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="60">
-        <f t="shared" si="0"/>
-        <v>92.720967404593239</v>
-      </c>
-      <c r="D43" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C43,wc_,Pb_)</f>
-        <v>157.27903259540676</v>
-      </c>
-      <c r="E43" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D43,wc_,Pb_)</f>
-        <v>92.720967404593239</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="60">
-        <f t="shared" si="0"/>
-        <v>101.99306414505256</v>
-      </c>
-      <c r="D44" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C44,wc_,Pb_)</f>
-        <v>147.99764536187905</v>
-      </c>
-      <c r="E44" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D44,wc_,Pb_)</f>
-        <v>101.99306414505277</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="60">
-        <f t="shared" si="0"/>
-        <v>111.26516088551188</v>
-      </c>
-      <c r="D45" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C45,wc_,Pb_)</f>
-        <v>138.42016771611472</v>
-      </c>
-      <c r="E45" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D45,wc_,Pb_)</f>
-        <v>111.26516088551185</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="60">
-        <f t="shared" si="0"/>
-        <v>120.53725762597119</v>
-      </c>
-      <c r="D46" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C46,wc_,Pb_)</f>
-        <v>128.34751399512305</v>
-      </c>
-      <c r="E46" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D46,wc_,Pb_)</f>
-        <v>120.53725762597141</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="60">
-        <f t="shared" si="0"/>
-        <v>129.80935436643051</v>
-      </c>
-      <c r="D47" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C47,wc_,Pb_)</f>
-        <v>117.66700980586805</v>
-      </c>
-      <c r="E47" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D47,wc_,Pb_)</f>
-        <v>129.80935436643048</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="60">
-        <f t="shared" si="0"/>
-        <v>139.08145110688983</v>
-      </c>
-      <c r="D48" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C48,wc_,Pb_)</f>
-        <v>106.21540748381179</v>
-      </c>
-      <c r="E48" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D48,wc_,Pb_)</f>
-        <v>139.08145110689006</v>
-      </c>
-    </row>
-    <row r="49" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="60">
-        <f t="shared" si="0"/>
-        <v>148.35354784734915</v>
-      </c>
-      <c r="D49" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C49,wc_,Pb_)</f>
-        <v>93.739922208814505</v>
-      </c>
-      <c r="E49" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D49,wc_,Pb_)</f>
-        <v>148.35354784734912</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="60">
-        <f t="shared" si="0"/>
-        <v>157.62564458780847</v>
-      </c>
-      <c r="D50" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C50,wc_,Pb_)</f>
-        <v>79.809293083534243</v>
-      </c>
-      <c r="E50" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D50,wc_,Pb_)</f>
-        <v>157.62564458780869</v>
-      </c>
-    </row>
-    <row r="51" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="60">
-        <f t="shared" si="0"/>
-        <v>166.89774132826778</v>
-      </c>
-      <c r="D51" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C51,wc_,Pb_)</f>
-        <v>63.563197048586858</v>
-      </c>
-      <c r="E51" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D51,wc_,Pb_)</f>
-        <v>166.89774132826776</v>
-      </c>
-    </row>
-    <row r="52" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="60">
-        <f t="shared" si="0"/>
-        <v>176.1698380687271</v>
-      </c>
-      <c r="D52" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C52,wc_,Pb_)</f>
-        <v>42.664035286213576</v>
-      </c>
-      <c r="E52" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D52,wc_,Pb_)</f>
-        <v>176.16983806872733</v>
-      </c>
-    </row>
-    <row r="53" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="60">
-        <f t="shared" si="0"/>
-        <v>185.44193480918642</v>
-      </c>
-      <c r="D53" s="62">
-        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C53,wc_,Pb_)</f>
-        <v>6.1315189037181028E-13</v>
-      </c>
-      <c r="E53" s="68">
-        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D53,wc_,Pb_)</f>
-        <v>185.44193480918642</v>
-      </c>
-    </row>
-    <row r="54" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="63"/>
-    </row>
-    <row r="55" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="63"/>
-    </row>
-    <row r="56" spans="3:11" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="K60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K116" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="127" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K127" s="64"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="101">
+        <f>C40+qmax_/N_</f>
+        <v>8.8926248248313904</v>
+      </c>
+      <c r="D41" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C41,fw_,Pb_)</f>
+        <v>241.18943569361363</v>
+      </c>
+      <c r="E41" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D41,fw_,Pb_)</f>
+        <v>8.8926248248313815</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="101">
+        <f>C41+qmax_/N_</f>
+        <v>17.785249649662781</v>
+      </c>
+      <c r="D42" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C42,fw_,Pb_)</f>
+        <v>232.37887138722724</v>
+      </c>
+      <c r="E42" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D42,fw_,Pb_)</f>
+        <v>17.785249649662791</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="101">
+        <f>C42+qmax_/N_</f>
+        <v>26.677874474494171</v>
+      </c>
+      <c r="D43" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C43,fw_,Pb_)</f>
+        <v>223.56830708084087</v>
+      </c>
+      <c r="E43" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D43,fw_,Pb_)</f>
+        <v>26.677874474494171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C44" s="101">
+        <f>C43+qmax_/N_</f>
+        <v>35.570499299325562</v>
+      </c>
+      <c r="D44" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C44,fw_,Pb_)</f>
+        <v>214.7577427744545</v>
+      </c>
+      <c r="E44" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D44,fw_,Pb_)</f>
+        <v>35.570499299325554</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="101">
+        <f>C44+qmax_/N_</f>
+        <v>44.463124124156948</v>
+      </c>
+      <c r="D45" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C45,fw_,Pb_)</f>
+        <v>205.9471784680681</v>
+      </c>
+      <c r="E45" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D45,fw_,Pb_)</f>
+        <v>44.463124124156963</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C46" s="101">
+        <f>C45+qmax_/N_</f>
+        <v>53.355748948988335</v>
+      </c>
+      <c r="D46" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C46,fw_,Pb_)</f>
+        <v>197.13661416168173</v>
+      </c>
+      <c r="E46" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D46,fw_,Pb_)</f>
+        <v>53.355748948988342</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C47" s="101">
+        <f>C46+qmax_/N_</f>
+        <v>62.248373773819722</v>
+      </c>
+      <c r="D47" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C47,fw_,Pb_)</f>
+        <v>188.32604985529537</v>
+      </c>
+      <c r="E47" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D47,fw_,Pb_)</f>
+        <v>62.248373773819722</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C48" s="101">
+        <f>C47+qmax_/N_</f>
+        <v>71.140998598651109</v>
+      </c>
+      <c r="D48" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C48,fw_,Pb_)</f>
+        <v>179.515485548909</v>
+      </c>
+      <c r="E48" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D48,fw_,Pb_)</f>
+        <v>71.140998598651109</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C49" s="101">
+        <f>C48+qmax_/N_</f>
+        <v>80.033623423482496</v>
+      </c>
+      <c r="D49" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C49,fw_,Pb_)</f>
+        <v>170.70463595367303</v>
+      </c>
+      <c r="E49" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D49,fw_,Pb_)</f>
+        <v>80.033623423482865</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C50" s="101">
+        <f>C49+qmax_/N_</f>
+        <v>88.926248248313883</v>
+      </c>
+      <c r="D50" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C50,fw_,Pb_)</f>
+        <v>161.7147091115996</v>
+      </c>
+      <c r="E50" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D50,fw_,Pb_)</f>
+        <v>88.926248248314067</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C51" s="101">
+        <f>C50+qmax_/N_</f>
+        <v>97.818873073145269</v>
+      </c>
+      <c r="D51" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C51,fw_,Pb_)</f>
+        <v>152.35792431084624</v>
+      </c>
+      <c r="E51" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D51,fw_,Pb_)</f>
+        <v>97.818873073145284</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C52" s="101">
+        <f>C51+qmax_/N_</f>
+        <v>106.71149789797666</v>
+      </c>
+      <c r="D52" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C52,fw_,Pb_)</f>
+        <v>142.57026706449346</v>
+      </c>
+      <c r="E52" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D52,fw_,Pb_)</f>
+        <v>106.7114978979765</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C53" s="101">
+        <f>C52+qmax_/N_</f>
+        <v>115.60412272280804</v>
+      </c>
+      <c r="D53" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C53,fw_,Pb_)</f>
+        <v>132.26660957004842</v>
+      </c>
+      <c r="E53" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D53,fw_,Pb_)</f>
+        <v>115.60412272280772</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C54" s="101">
+        <f>C53+qmax_/N_</f>
+        <v>124.49674754763943</v>
+      </c>
+      <c r="D54" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C54,fw_,Pb_)</f>
+        <v>121.32944771811133</v>
+      </c>
+      <c r="E54" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D54,fw_,Pb_)</f>
+        <v>124.4967475476399</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C55" s="101">
+        <f>C54+qmax_/N_</f>
+        <v>133.38937237247083</v>
+      </c>
+      <c r="D55" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C55,fw_,Pb_)</f>
+        <v>109.5884875991931</v>
+      </c>
+      <c r="E55" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D55,fw_,Pb_)</f>
+        <v>133.38937237247077</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C56" s="101">
+        <f>C55+qmax_/N_</f>
+        <v>142.28199719730222</v>
+      </c>
+      <c r="D56" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C56,fw_,Pb_)</f>
+        <v>96.779927548549026</v>
+      </c>
+      <c r="E56" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D56,fw_,Pb_)</f>
+        <v>142.28199719730233</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C57" s="101">
+        <f>C56+qmax_/N_</f>
+        <v>151.1746220221336</v>
+      </c>
+      <c r="D57" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C57,fw_,Pb_)</f>
+        <v>82.453437554837336</v>
+      </c>
+      <c r="E57" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D57,fw_,Pb_)</f>
+        <v>151.17462202213355</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="101">
+        <f>C57+qmax_/N_</f>
+        <v>160.06724684696499</v>
+      </c>
+      <c r="D58" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C58,fw_,Pb_)</f>
+        <v>65.709709879626914</v>
+      </c>
+      <c r="E58" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D58,fw_,Pb_)</f>
+        <v>160.06724684696508</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C59" s="101">
+        <f>C58+qmax_/N_</f>
+        <v>168.95987167179638</v>
+      </c>
+      <c r="D59" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C59,fw_,Pb_)</f>
+        <v>44.099314999491639</v>
+      </c>
+      <c r="E59" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D59,fw_,Pb_)</f>
+        <v>168.95987167179629</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C60" s="101">
+        <f>C59+qmax_/N_</f>
+        <v>177.85249649662777</v>
+      </c>
+      <c r="D60" s="103">
+        <f>[1]!IPR_Pwf_atma(PI_,Pres_,C60,fw_,Pb_)</f>
+        <v>1.000000000000357</v>
+      </c>
+      <c r="E60" s="103">
+        <f>[1]!IPR_Ql_sm3Day(PI_,Pres_,D60,fw_,Pb_)</f>
+        <v>177.85249649662777</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8016,7 +7647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Лист13"/>
   <dimension ref="B2:Y1267"/>
   <sheetViews>
@@ -8051,29 +7682,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="56" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56" t="s">
         <v>162</v>
       </c>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="V2" s="71" t="s">
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="V2" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
+      <c r="W2" s="57"/>
+      <c r="X2" s="57"/>
     </row>
     <row r="3" spans="2:25" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="48" t="s">
@@ -63766,7 +63397,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:O1267"/>
+  <autoFilter ref="A3:O1267" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataConsolidate/>
   <mergeCells count="3">
     <mergeCell ref="B2:K2"/>
@@ -63780,7 +63411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="ЛистФонтан"/>
   <dimension ref="A1:AT200"/>
   <sheetViews>
@@ -63810,15 +63441,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="73" t="s">
+      <c r="J1" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="74"/>
-      <c r="L1" s="79">
+      <c r="K1" s="86"/>
+      <c r="L1" s="90">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="80"/>
+      <c r="M1" s="91"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -63830,15 +63461,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="77">
+      <c r="K2" s="88"/>
+      <c r="L2" s="63">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="78"/>
+      <c r="M2" s="89"/>
       <c r="T2" s="20" t="s">
         <v>20</v>
       </c>
@@ -63852,31 +63483,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="96"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="97">
+      <c r="B5" s="65">
         <v>1</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="99"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="102"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -63885,14 +63516,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="104"/>
-      <c r="D8" s="103" t="s">
+      <c r="B8" s="72"/>
+      <c r="D8" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="104"/>
+      <c r="E8" s="72"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
@@ -63912,9 +63543,9 @@
       <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="27" t="e">
         <f>Qж__м3_сут*(1-B11/100)*B24</f>
-        <v>38.700000000000003</v>
+        <v>#NAME?</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>78</v>
@@ -64003,10 +63634,10 @@
     </row>
     <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="106"/>
+      <c r="B18" s="74"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
@@ -64034,10 +63665,10 @@
     </row>
     <row r="22" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="106"/>
+      <c r="B23" s="74"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
@@ -64159,99 +63790,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="83" t="s">
+      <c r="B42" s="59"/>
+      <c r="C42" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="86" t="s">
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="87"/>
-      <c r="L42" s="72" t="s">
+      <c r="J42" s="81"/>
+      <c r="L42" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72" t="s">
+      <c r="M42" s="92"/>
+      <c r="N42" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72" t="s">
+      <c r="O42" s="92"/>
+      <c r="P42" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72" t="s">
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72" t="s">
+      <c r="S42" s="92"/>
+      <c r="T42" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72" t="s">
+      <c r="U42" s="92"/>
+      <c r="V42" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72" t="s">
+      <c r="W42" s="92"/>
+      <c r="X42" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72" t="s">
+      <c r="Y42" s="92"/>
+      <c r="Z42" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="72" t="s">
+      <c r="AA42" s="92"/>
+      <c r="AB42" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="72"/>
-      <c r="AD42" s="72" t="s">
+      <c r="AC42" s="92"/>
+      <c r="AD42" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="72"/>
-      <c r="AF42" s="72" t="s">
+      <c r="AE42" s="92"/>
+      <c r="AF42" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="72"/>
-      <c r="AH42" s="72" t="s">
+      <c r="AG42" s="92"/>
+      <c r="AH42" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="72"/>
-      <c r="AJ42" s="72" t="s">
+      <c r="AI42" s="92"/>
+      <c r="AJ42" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="72"/>
-      <c r="AL42" s="72"/>
-      <c r="AM42" s="72"/>
-      <c r="AN42" s="72"/>
-      <c r="AO42" s="72"/>
-      <c r="AP42" s="72"/>
-      <c r="AQ42" s="72"/>
-      <c r="AR42" s="72"/>
-      <c r="AS42" s="72"/>
+      <c r="AK42" s="92"/>
+      <c r="AL42" s="92"/>
+      <c r="AM42" s="92"/>
+      <c r="AN42" s="92"/>
+      <c r="AO42" s="92"/>
+      <c r="AP42" s="92"/>
+      <c r="AQ42" s="92"/>
+      <c r="AR42" s="92"/>
+      <c r="AS42" s="92"/>
       <c r="AT42" s="22"/>
     </row>
     <row r="43" spans="1:46" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="90"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="90" t="s">
+      <c r="A43" s="60"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="91"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="90" t="s">
+      <c r="D43" s="61"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="91"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="89"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="83"/>
       <c r="L43" s="22" t="s">
         <v>15</v>
       </c>
@@ -64347,17 +63978,17 @@
       <c r="B44" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="81" t="s">
+      <c r="C44" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="82"/>
+      <c r="D44" s="76"/>
       <c r="E44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="81" t="s">
+      <c r="F44" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="82"/>
+      <c r="G44" s="76"/>
       <c r="H44" s="9" t="s">
         <v>65</v>
       </c>
@@ -66830,20 +66461,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AL42:AM42"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AP42:AQ42"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -66858,13 +66482,20 @@
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="Z42:AA42"/>
     <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AL42:AM42"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
@@ -66897,7 +66528,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Упражнения/20.IPR.xlsx
+++ b/Упражнения/20.IPR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D857B28-446F-4AFD-A8D9-13C795463D1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B34AA21-DE93-4D10-8938-D7BEA3581EBF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12103" tabRatio="422" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2255,54 +2255,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2311,16 +2267,11 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2360,6 +2311,55 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -6227,7 +6227,7 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -62638,15 +62638,15 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="73">
+      <c r="K1" s="94"/>
+      <c r="L1" s="98">
         <f>AV7-1</f>
         <v>-1</v>
       </c>
-      <c r="M1" s="74"/>
+      <c r="M1" s="99"/>
       <c r="Q1" t="b">
         <v>0</v>
       </c>
@@ -62658,15 +62658,15 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="69" t="s">
+      <c r="J2" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="70"/>
+      <c r="K2" s="96"/>
       <c r="L2" s="71">
         <f>AY11-1</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="72"/>
+      <c r="M2" s="97"/>
       <c r="T2" s="19" t="s">
         <v>20</v>
       </c>
@@ -62680,31 +62680,31 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="70" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="71"/>
-      <c r="D4" s="90"/>
+      <c r="D4" s="72"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="91">
+      <c r="B5" s="73">
         <v>1</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
     </row>
     <row r="6" spans="1:20" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
     </row>
     <row r="7" spans="1:20" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
@@ -62713,14 +62713,14 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="D8" s="97" t="s">
+      <c r="B8" s="80"/>
+      <c r="D8" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="98"/>
+      <c r="E8" s="80"/>
     </row>
     <row r="9" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -62831,10 +62831,10 @@
     </row>
     <row r="17" spans="1:5" ht="12.9" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:5" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="100"/>
+      <c r="B18" s="82"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -62862,10 +62862,10 @@
     </row>
     <row r="22" spans="1:5" ht="12.9" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:5" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="100"/>
+      <c r="B23" s="82"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -62987,99 +62987,99 @@
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A42" s="87" t="s">
+      <c r="A42" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="77" t="s">
+      <c r="B42" s="67"/>
+      <c r="C42" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="80" t="s">
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="81"/>
-      <c r="L42" s="66" t="s">
+      <c r="J42" s="89"/>
+      <c r="L42" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66" t="s">
+      <c r="M42" s="100"/>
+      <c r="N42" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="O42" s="66"/>
-      <c r="P42" s="66" t="s">
+      <c r="O42" s="100"/>
+      <c r="P42" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="Q42" s="66"/>
-      <c r="R42" s="66" t="s">
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="S42" s="66"/>
-      <c r="T42" s="66" t="s">
+      <c r="S42" s="100"/>
+      <c r="T42" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="U42" s="66"/>
-      <c r="V42" s="66" t="s">
+      <c r="U42" s="100"/>
+      <c r="V42" s="100" t="s">
         <v>79</v>
       </c>
-      <c r="W42" s="66"/>
-      <c r="X42" s="66" t="s">
+      <c r="W42" s="100"/>
+      <c r="X42" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="Y42" s="66"/>
-      <c r="Z42" s="66" t="s">
+      <c r="Y42" s="100"/>
+      <c r="Z42" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="66"/>
-      <c r="AB42" s="66" t="s">
+      <c r="AA42" s="100"/>
+      <c r="AB42" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="AC42" s="66"/>
-      <c r="AD42" s="66" t="s">
+      <c r="AC42" s="100"/>
+      <c r="AD42" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="AE42" s="66"/>
-      <c r="AF42" s="66" t="s">
+      <c r="AE42" s="100"/>
+      <c r="AF42" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="AG42" s="66"/>
-      <c r="AH42" s="66" t="s">
+      <c r="AG42" s="100"/>
+      <c r="AH42" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="AI42" s="66"/>
-      <c r="AJ42" s="66" t="s">
+      <c r="AI42" s="100"/>
+      <c r="AJ42" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="AK42" s="66"/>
-      <c r="AL42" s="66"/>
-      <c r="AM42" s="66"/>
-      <c r="AN42" s="66"/>
-      <c r="AO42" s="66"/>
-      <c r="AP42" s="66"/>
-      <c r="AQ42" s="66"/>
-      <c r="AR42" s="66"/>
-      <c r="AS42" s="66"/>
+      <c r="AK42" s="100"/>
+      <c r="AL42" s="100"/>
+      <c r="AM42" s="100"/>
+      <c r="AN42" s="100"/>
+      <c r="AO42" s="100"/>
+      <c r="AP42" s="100"/>
+      <c r="AQ42" s="100"/>
+      <c r="AR42" s="100"/>
+      <c r="AS42" s="100"/>
       <c r="AT42" s="21"/>
     </row>
     <row r="43" spans="1:46" ht="12.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="84"/>
-      <c r="B43" s="85"/>
-      <c r="C43" s="84" t="s">
+      <c r="A43" s="68"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="85"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="84" t="s">
+      <c r="D43" s="69"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="85"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="83"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="91"/>
       <c r="L43" s="21" t="s">
         <v>15</v>
       </c>
@@ -63175,17 +63175,17 @@
       <c r="B44" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="75" t="s">
+      <c r="C44" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="76"/>
+      <c r="D44" s="84"/>
       <c r="E44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="75" t="s">
+      <c r="F44" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="G44" s="76"/>
+      <c r="G44" s="84"/>
       <c r="H44" s="8" t="s">
         <v>65</v>
       </c>
@@ -65658,20 +65658,13 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:J43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="AR42:AS42"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AH42:AI42"/>
+    <mergeCell ref="AJ42:AK42"/>
+    <mergeCell ref="AL42:AM42"/>
+    <mergeCell ref="AN42:AO42"/>
+    <mergeCell ref="AP42:AQ42"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
@@ -65686,13 +65679,20 @@
     <mergeCell ref="X42:Y42"/>
     <mergeCell ref="Z42:AA42"/>
     <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AR42:AS42"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AH42:AI42"/>
-    <mergeCell ref="AJ42:AK42"/>
-    <mergeCell ref="AL42:AM42"/>
-    <mergeCell ref="AN42:AO42"/>
-    <mergeCell ref="AP42:AQ42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:J43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9">
     <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="lessThanOrEqual">
